--- a/DateBase/orders/Nha Thu_2026-2-8.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-8.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -734,15 +734,49 @@
       <c r="A30" t="str">
         <v>22</v>
       </c>
+      <c r="C30" t="str">
+        <v>798_大菊粉_undefined_undefined_5stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C31" t="str">
+        <v>860_大菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>24</v>
+      </c>
+      <c r="C32" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>25</v>
+      </c>
+      <c r="C33" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L33"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -800,7 +834,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02285010105030302050501301002050746065653030703030291303000</v>
+        <v>022850101050303020505013010020507460656530307030302913030301934.515.5</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-8.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-8.xlsx
@@ -836,6 +836,9 @@
       <c r="G2" t="str">
         <v>022850101050303020505013010020507460656530307030302913030301934.515.5</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
